--- a/Consultant_Active_Reports/Active_Candidates_Max_Hogarth.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Max_Hogarth.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,21 +555,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>731</v>
+        <v>750</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Oscilar</t>
+          <t>Novee.io</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Enterprise AE x5</t>
+          <t>Enterprise Account Executive (US)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>JOAQUIN SALCEDO</t>
+          <t>Joe Troiani</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -583,21 +583,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>750</v>
+        <v>761</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Novee.io</t>
+          <t>Mate Security</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (US)</t>
+          <t>VP Sales - US</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Joe Troiani</t>
+          <t>Bryan Pierrot</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45982</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bryan Pierrot</t>
+          <t>Matthew Schaner</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -639,16 +639,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mate Security</t>
+          <t>TraceBit</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>VP Sales - US</t>
+          <t>VP Sales NYC</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -667,7 +667,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -676,21 +676,21 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>VP Sales NYC</t>
+          <t>Account Executive NYC</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Matthew Schaner</t>
+          <t>Ben Brighton</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>4th Interview</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45987</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="10">
@@ -709,16 +709,16 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ben Brighton</t>
+          <t>Ryan Drillock</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4th Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45992</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Ryan Drillock</t>
+          <t>Jameson Schwartz</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45987</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="12">
@@ -765,7 +765,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jameson Schwartz</t>
+          <t>Bruna Corbin</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -774,35 +774,35 @@
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45982</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TraceBit</t>
+          <t>Adaptive6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Account Executive NYC</t>
+          <t>Head of Sales (US)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bruna Corbin</t>
+          <t>Dan Baldassano</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45986</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="14">
@@ -821,7 +821,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Dan Baldassano</t>
+          <t>Bryan Pierrot</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -835,57 +835,29 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>791</v>
+        <v>834</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Adaptive6</t>
+          <t>Blockaid</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Head of Sales (US)</t>
+          <t>Regional Director US</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bryan Pierrot</t>
+          <t>Jeff White</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>834</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Blockaid</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Regional Director US</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Jeff White</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1st Interview</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="n">
         <v>45999</v>
       </c>
     </row>

--- a/Consultant_Active_Reports/Active_Candidates_Max_Hogarth.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Max_Hogarth.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,35 +639,35 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TraceBit</t>
+          <t>Mate Security</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>VP Sales NYC</t>
+          <t>VP Sales - US</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Matthew Schaner</t>
+          <t>Michael Persechini</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45987</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -676,21 +676,21 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Account Executive NYC</t>
+          <t>VP Sales NYC</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ben Brighton</t>
+          <t>Matthew Schaner</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4th Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45992</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="10">
@@ -709,16 +709,16 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ryan Drillock</t>
+          <t>Ben Brighton</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>4th Interview</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45987</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="11">
@@ -737,7 +737,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jameson Schwartz</t>
+          <t>Bruna Corbin</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45982</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="12">
@@ -765,7 +765,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bruna Corbin</t>
+          <t>Jameson Schwartz</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -774,31 +774,31 @@
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45986</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>791</v>
+        <v>770</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Adaptive6</t>
+          <t>TraceBit</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Head of Sales (US)</t>
+          <t>Account Executive NYC</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Dan Baldassano</t>
+          <t>Ryan Drillock</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
@@ -835,29 +835,57 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
+        <v>791</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Adaptive6</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Head of Sales (US)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Dan Baldassano</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>CV Sent</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>834</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Blockaid</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Regional Director US</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Jeff White</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1st Interview</t>
         </is>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F16" s="2" t="n">
         <v>45999</v>
       </c>
     </row>

--- a/Consultant_Active_Reports/Active_Candidates_Max_Hogarth.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Max_Hogarth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,7 +706,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
@@ -751,32 +751,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jeff Ross</t>
+          <t>Brad Rhodes</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TraceBit</t>
+          <t>Mate Security</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>VP Sales NYC</t>
+          <t>VP Sales - US</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Eric Amstutz</t>
+          <t>Jeff Ross</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -812,7 +812,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -821,17 +821,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Account Executive NYC</t>
+          <t>VP Sales NYC</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ryan Drillock</t>
+          <t>Eric Amstutz</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Matthew Bohannon</t>
+          <t>Jacob Neuhard</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
@@ -876,12 +876,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jacob Neuhard</t>
+          <t>Matthew Bohannon</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
@@ -901,32 +901,32 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jack Straniero</t>
+          <t>Ryan Drillock</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>3rd Interview</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Chainguard</t>
+          <t>Adaptive6</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RVP SF/PNW</t>
+          <t>Head of Sales (US)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Chris Dyer</t>
+          <t>Andrew Kashin</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -937,21 +937,21 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>791</v>
+        <v>809</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Adaptive6</t>
+          <t>Blink Ops</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Head of Sales (US)</t>
+          <t>Enterprise Account Executive (Mid-ATL)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Chris Dyer</t>
+          <t>Rich Kroll</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -962,101 +962,101 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>809</v>
+        <v>834</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Blink Ops</t>
+          <t>Blockaid</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (Mid-ATL)</t>
+          <t>Regional Director US</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Joe Troiani</t>
+          <t>Chris Dyer</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>809</v>
+        <v>834</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Blink Ops</t>
+          <t>Blockaid</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (Mid-ATL)</t>
+          <t>Regional Director US</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Rich Kroll</t>
+          <t>Jeff White</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Blockaid</t>
+          <t>Maze</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Regional Director US</t>
+          <t>Technical Success Manager</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Chris Dyer</t>
+          <t>Aaron Lake</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Blockaid</t>
+          <t>Maze</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Regional Director US</t>
+          <t>Technical Success Manager</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Jeff White</t>
+          <t>Christian Gerling</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Aaron Lake</t>
+          <t>James Sandwick</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1101,32 +1101,32 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Christian Gerling</t>
+          <t>Vishal Soni</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Maze</t>
+          <t>Red Access</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Technical Success Manager</t>
+          <t>Enterprise Account Executive UK</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>James Sandwick</t>
+          <t>Michele Maioli</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1137,99 +1137,49 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Maze</t>
+          <t>Simile.ai</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Technical Success Manager</t>
+          <t>CS1 Simile.ai - Enterprise AE x2</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Vishal Soni</t>
+          <t>Colby Perry</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>843</v>
+        <v>870</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Red Access</t>
+          <t>Native Security</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive UK</t>
+          <t>Enterprise Account Executive (North-East)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Michele Maioli</t>
+          <t>Rich Kroll</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
-        <is>
-          <t>1st Interview</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>847</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Simile.ai</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>CS1 Simile.ai - Enterprise AE x2</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Colby Perry</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>CV Sent</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>870</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Native Security</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Enterprise Account Executive (North-East)</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Rich Kroll</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
         <is>
           <t>CV Sent</t>
         </is>
